--- a/src/analysis_examples/circadb/results_lomb/cosinor_10596675_by080835_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10596675_by080835_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2848725630781596, 0.4410003259431557]</t>
+          <t>[0.2853342969455008, 0.44053859207581453]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.484109889484444e-09</v>
+        <v>3.143704851993334e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.484109889484444e-09</v>
+        <v>3.143704851993334e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6037895790683088</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3731185713217758, 0.45309941650711844]</t>
+          <t>[0.3731228670669704, 0.4530951207619238]</t>
         </is>
       </c>
       <c r="U2" t="n">
